--- a/src/batch_results.xlsx
+++ b/src/batch_results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Results" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,22 +457,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="26" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
     <col width="33" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="50" customWidth="1" min="6" max="6"/>
     <col width="15" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="18" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="21" customWidth="1" min="11" max="11"/>
+    <col width="50" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="50" customWidth="1" min="11" max="11"/>
     <col width="24" customWidth="1" min="12" max="12"/>
     <col width="24" customWidth="1" min="13" max="13"/>
-    <col width="24" customWidth="1" min="14" max="14"/>
-    <col width="10" customWidth="1" min="15" max="15"/>
-    <col width="16" customWidth="1" min="16" max="16"/>
-    <col width="20" customWidth="1" min="17" max="17"/>
+    <col width="50" customWidth="1" min="14" max="14"/>
+    <col width="50" customWidth="1" min="15" max="15"/>
+    <col width="50" customWidth="1" min="16" max="16"/>
+    <col width="50" customWidth="1" min="17" max="17"/>
     <col width="18" customWidth="1" min="18" max="18"/>
     <col width="50" customWidth="1" min="19" max="19"/>
   </cols>
@@ -623,62 +623,194 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
+          <t>+91 8448040827</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>Raghurajpratapyadav11@gmail.com</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>Greater Noida</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>G.L. Bajaj Institute of Technology and Management</t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>2026</t>
+        </is>
+      </c>
+      <c r="H5" s="4" t="inlineStr">
+        <is>
+          <t>B.Tech</t>
+        </is>
+      </c>
+      <c r="I5" s="4" t="inlineStr">
+        <is>
+          <t>Computer Science with specializations in Artificial Intelligence and Machine Learning</t>
+        </is>
+      </c>
+      <c r="J5" s="4" t="inlineStr">
+        <is>
+          <t>7.6/10</t>
+        </is>
+      </c>
+      <c r="K5" s="4" t="inlineStr">
+        <is>
+          <t>Data Wrangling, Data Visualization, Statistical Analysis, Predictive Modeling, Feature Engineering, Model Deployment,Python, C, C++, HTML/CSS, JavaScript, SQL (MySQL, SQLite), Bash , Java, R,Java,Tensorflow, Scikit-Learn, Pytorch, NumPy, Pandas, Matplotlib, Keras, React.js, Django , Git, GitHub, Docker, AWS Cloud Services, Azure, Machine Learning, NLP , CNN , DNN, LLM, Linux, Windows, Selenium, Object Oriented Programming , Microsoft SQL Server, Multithreading</t>
+        </is>
+      </c>
+      <c r="L5" s="4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M5" s="4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N5" s="4" t="inlineStr">
+        <is>
+          <t>Infosys(Software Engineering Intern)</t>
+        </is>
+      </c>
+      <c r="O5" s="4" t="inlineStr">
+        <is>
+          <t>Automated Attendance System,Article Web Project,Automated Short Video Creator - ASVC,Calories Burned Prediction Model,Templates Resume Creator</t>
+        </is>
+      </c>
+      <c r="P5" s="4" t="inlineStr">
+        <is>
+          <t>Microsoft Certified: Azure Fundamental (AZ-900 ),Microsoft Certified: Azure AI Fundamental (AI-900) 2022,Microsoft Certified: Azure Data Fundamental (DP-900),Microsoft Certified: Security , Compliance and Data Fundamental (SC-900),Microsoft Certified: Azure Administrator (AZ-104)</t>
+        </is>
+      </c>
+      <c r="Q5" s="4" t="inlineStr">
+        <is>
+          <t>AWS AI &amp; ML Scholarship,Toppr Asha Scholarship,Reliance Undergraduate Scholar,Google Kickstart Ranks: Round H 2022-3280, Farewell Round B 2023 -753, Farewell Round D 2023- 150,HDFC ECSS Scholarship,Solved more than 700+ programming problems on competitive platforms,MI Scholarship for class 11 and 12 students,Selected for  Amazon ML Summer School 2024</t>
+        </is>
+      </c>
+      <c r="R5" s="4" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="S5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ML Engineer (58.21) 
+Generative AI Developer (43.55) 
+Data Scientist (42.51) 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Raghuraj Pratap Yadav</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
           <t>+918448040827</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>raghurajpratapyadav11@gmail.com</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>G.L. Bajaj Institute of Technology and Management</t>
         </is>
       </c>
-      <c r="G5" s="4" t="inlineStr">
+      <c r="G6" s="4" t="inlineStr">
         <is>
           <t>2026</t>
         </is>
       </c>
-      <c r="H5" s="4" t="inlineStr">
+      <c r="H6" s="4" t="inlineStr">
         <is>
           <t>B.Tech</t>
         </is>
       </c>
-      <c r="I5" s="4" t="inlineStr">
-        <is>
-          <t>Computer Science</t>
-        </is>
-      </c>
-      <c r="J5" s="4" t="inlineStr"/>
-      <c r="K5" s="4" t="inlineStr"/>
-      <c r="L5" s="4" t="inlineStr"/>
-      <c r="M5" s="4" t="inlineStr"/>
-      <c r="N5" s="4" t="inlineStr"/>
-      <c r="O5" s="4" t="inlineStr"/>
-      <c r="P5" s="4" t="inlineStr"/>
-      <c r="Q5" s="4" t="inlineStr"/>
-      <c r="R5" s="4" t="inlineStr">
+      <c r="I6" s="4" t="inlineStr">
+        <is>
+          <t>Computer Science, Artificial Intelligence, Machine Learning</t>
+        </is>
+      </c>
+      <c r="J6" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="S5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ML Engineer (53.51) 
-Generative AI Developer (46.57) 
-Data Scientist (40.66) 
+      <c r="K6" s="4" t="inlineStr">
+        <is>
+          <t>Data Wrangling, Data Visualization, Statistical Analysis, Predictive Modeling, Feature Engineering, Model Deployment, Big Data Analysis, PySpark, Microsoft Fabric, Apache Spark, Delta Lake, PowerBI, Lakehouse, Pipelines, Forecassting , Data Models, Data Lake, Python, C++, HTML/CSS, JavaScript, SQL (MySQL, SQLite), Bash, Java, R, MATLAB, TensorFlow, Scikit-Learn, Pytorch, NumPy, Pandas, Matplotlib, Keras, Django, Git, GitHub, Docker, Azure Cloud Services, Azure, Machine Learning, NLP, CNN, DNN, LLM, Linux, Windows, Selenium, Object Oriented Programming, Microsoft SQL Server, Multithreading, Database Management, OpenCV, Pandas, Computer Vision, Database Design, Automation, Full-stack Development, Azure Blob Storage, User Authentication, JavaScript, Cloud Deployment, Gemini API Integration, Web Development, User Interface Design, Azure AI Search , Semantic Search, PostgreSQL, LLM, Azure OpenAI, Advance RAG, Search Agent</t>
+        </is>
+      </c>
+      <c r="L6" s="4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M6" s="4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N6" s="4" t="inlineStr">
+        <is>
+          <t>Infosys(AI Intern),SilverTouch Technologies Ltd.(Software Developer Intern)</t>
+        </is>
+      </c>
+      <c r="O6" s="4" t="inlineStr">
+        <is>
+          <t>Automated Attendance System,Article Web Project,Automated Short Video Creator - ASVC,Templates Resume Creator,CareerCanvas: Job Finder Chatbot,Calories Burned Prediction Model</t>
+        </is>
+      </c>
+      <c r="P6" s="4" t="inlineStr">
+        <is>
+          <t>Microsoft Certified: Azure Fundamental (AZ-900),Microsoft Certified: Azure AI Fundamental (AI-900),Microsoft Certified: Azure Data Fundamental (DP-900),Microsoft Certified: Security, Compliance and Data Fundamental (SC-900),Microsoft Certified: Azure Administrator (AZ-104)</t>
+        </is>
+      </c>
+      <c r="Q6" s="4" t="inlineStr">
+        <is>
+          <t>Awarded gold medal in Mathematics Olympiad,Awarded gold medal in National Science Olympiad,Got 1st Rank in class continuously from class 5 to 12,AWS AI &amp; ML Scholarship,Toppr Asha Scholarship,Reliance Undergraduate Scholar,Google Kickstart Ranks: Round H 2022-3280, Farewell Round B 2023 -753, Farewell Round D 2023- 150,HDFC ECSS Scholarship,Solved more than 700+ programming problems on competitive platforms,MI Scholarship for class 11 and 12 students,Selected for Amazon ML Summer School 2024,One of my projects was selected among the top 5 in a quarterly project competition</t>
+        </is>
+      </c>
+      <c r="R6" s="4" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="S6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ML Engineer (57.74) 
+Generative AI Developer (55.96) 
+AI Research Scientist (49.99) 
 </t>
         </is>
       </c>
